--- a/3/Auswertung.xlsx
+++ b/3/Auswertung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -246,46 +246,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.09</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.09</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,46 +393,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.05</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.06</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -543,43 +543,43 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.04</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.02</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.08</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,46 +690,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6666666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2.3333333333333334E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6666666666666667E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.666666666666667E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.3333333333333337E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>2.3333333333333334E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.3333333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.6666666666666671E-3</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,7 +1565,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1576,7 +1576,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:ext cx="9294395" cy="6075947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1904,32 +1904,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:L305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D305" sqref="D305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
         <f>COUNTIF($C$4:$C$103,$H4)/100</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f>COUNTIF($D$4:$D$103,$H4)/100</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="K4">
         <f>COUNTIF($E$4:$E$103,$H4)/100</f>
@@ -1937,37 +1937,37 @@
       </c>
       <c r="L4">
         <f>COUNTIF($C$4:$C$303,$H4)/300</f>
-        <v>2.3333333333333334E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I17" si="0">COUNTIF($C$4:$C$103,$H5)/100</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J17" si="1">COUNTIF($D$4:$D$103,H5)/100</f>
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5:K17" si="2">COUNTIF($E$4:$E$103,H5)/100</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L17" si="3">COUNTIF($C$4:$C$303,$H5)/300</f>
-        <v>3.6666666666666667E-2</v>
+        <v>1.3333333333333334E-2</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
@@ -1975,21 +1975,21 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
@@ -1997,55 +1997,55 @@
       </c>
       <c r="L6">
         <f t="shared" si="3"/>
-        <v>8.666666666666667E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>0.18</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
@@ -2053,22 +2053,22 @@
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
-        <v>0.16333333333333333</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -2079,86 +2079,86 @@
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
         <v>16</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
       </c>
       <c r="H10">
         <v>7</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>0.11333333333333333</v>
+        <v>0.15666666666666668</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>8</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>0.06</v>
+        <v>0.12333333333333334</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>9</v>
@@ -2169,15 +2169,15 @@
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>5.3333333333333337E-2</v>
+        <v>5.6666666666666664E-2</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
@@ -2185,81 +2185,81 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>11</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
-        <v>2.3333333333333334E-2</v>
+        <v>3.6666666666666667E-2</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H15">
         <v>12</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <v>2.3333333333333334E-2</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
@@ -2275,78 +2275,78 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>13</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>6.6666666666666671E-3</v>
+        <v>2.3333333333333334E-2</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H17">
         <v>14</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>6.6666666666666671E-3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -2354,21 +2354,21 @@
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I20">
         <f>COUNTIF($C$4:$C$103,$H4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <f>COUNTIF($D$4:$D$103,$H4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <f>COUNTIF($E$4:$E$103,$H4)</f>
@@ -2376,53 +2376,53 @@
       </c>
       <c r="L20">
         <f>COUNTIF($C$4:$C$303,$H4)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I33" si="4">COUNTIF($C$4:$C$103,$H5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J33" si="5">COUNTIF($D$4:$D$103,$H5)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K21">
         <f t="shared" ref="K21:K33" si="6">COUNTIF($E$4:$E$103,$H5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <f t="shared" ref="L21:L33" si="7">COUNTIF($C$4:$C$303,$H5)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
@@ -2430,34 +2430,34 @@
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>7</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K23">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="L23">
         <f t="shared" si="7"/>
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
@@ -2465,14 +2465,14 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J24">
         <f t="shared" si="5"/>
@@ -2480,19 +2480,19 @@
       </c>
       <c r="K24">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24">
         <f t="shared" si="7"/>
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -2503,80 +2503,80 @@
       </c>
       <c r="J25">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K25">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L25">
         <f t="shared" si="7"/>
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
         <v>9</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K26">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L26">
         <f t="shared" si="7"/>
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J27">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K27">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L27">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
@@ -2584,88 +2584,88 @@
       </c>
       <c r="J28">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L28">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K29">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K30">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I31">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31">
         <f t="shared" si="6"/>
@@ -2673,245 +2673,245 @@
       </c>
       <c r="L31">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I32">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
         <v>4</v>
-      </c>
-      <c r="D46">
-        <v>7</v>
-      </c>
-      <c r="E46">
-        <v>5</v>
       </c>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48">
         <v>6</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
         <v>3</v>
       </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
       <c r="E49">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -2919,13 +2919,13 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
@@ -2933,10 +2933,10 @@
         <v>3</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
@@ -2944,76 +2944,76 @@
         <v>7</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E53">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
         <v>10</v>
-      </c>
-      <c r="E54">
-        <v>4</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D56">
         <v>4</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
@@ -3021,65 +3021,65 @@
         <v>4</v>
       </c>
       <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
         <v>3</v>
-      </c>
-      <c r="E60">
-        <v>6</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <v>6</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.25">
@@ -3087,21 +3087,21 @@
         <v>8</v>
       </c>
       <c r="D66">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C67">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.25">
@@ -3112,70 +3112,70 @@
         <v>5</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C69">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E73">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -3183,24 +3183,24 @@
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D75">
         <v>8</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D76">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.25">
@@ -3208,18 +3208,18 @@
         <v>6</v>
       </c>
       <c r="D77">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E77">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C78">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -3227,57 +3227,57 @@
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C79">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C80">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D81">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
@@ -3285,32 +3285,32 @@
         <v>8</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E84">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E85">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
@@ -3318,43 +3318,43 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E90">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.25">
@@ -3362,18 +3362,18 @@
         <v>6</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -3381,65 +3381,65 @@
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D93">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96">
         <v>7</v>
       </c>
       <c r="E96">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>5</v>
@@ -3447,32 +3447,32 @@
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E100">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <v>6</v>
@@ -3480,102 +3480,102 @@
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102">
         <v>4</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D105">
         <f>AVERAGE(D4:D103)</f>
-        <v>7.04</v>
+        <v>7.66</v>
       </c>
       <c r="E105">
         <f>AVERAGE(E4:E103)</f>
-        <v>5.93</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
@@ -3585,7 +3585,7 @@
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
@@ -3595,7 +3595,7 @@
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
@@ -3605,127 +3605,127 @@
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
@@ -3735,37 +3735,37 @@
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
@@ -3775,22 +3775,22 @@
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
@@ -3800,32 +3800,32 @@
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.25">
@@ -3835,32 +3835,32 @@
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.25">
@@ -3870,102 +3870,102 @@
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
@@ -3975,27 +3975,27 @@
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.25">
@@ -4005,82 +4005,82 @@
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.25">
@@ -4090,17 +4090,17 @@
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.25">
@@ -4110,7 +4110,7 @@
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
@@ -4120,122 +4120,122 @@
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.25">
@@ -4245,117 +4245,117 @@
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.25">
@@ -4365,17 +4365,17 @@
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.25">
@@ -4385,67 +4385,67 @@
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.25">
@@ -4455,27 +4455,27 @@
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C293">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C294">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C295">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C296">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C297">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.25">
@@ -4485,12 +4485,12 @@
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C299">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C300">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.25">
@@ -4500,18 +4500,18 @@
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C302">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C303">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C305">
         <f>AVERAGE(C4:C303)</f>
-        <v>6.38</v>
+        <v>7.5233333333333334</v>
       </c>
     </row>
   </sheetData>
